--- a/Switches/Contactor Switch/Electrical/PickAndPlace_V2.0.1 PCB_2024-06-04.xlsx
+++ b/Switches/Contactor Switch/Electrical/PickAndPlace_V2.0.1 PCB_2024-06-04.xlsx
@@ -94,487 +94,487 @@
     <t>MHK1560CRBTD</t>
   </si>
   <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>D-SUB-DR-9PCM-CB</t>
+  </si>
+  <si>
+    <t>DB9-TH_ID09S33E4GV00LF</t>
+  </si>
+  <si>
+    <t>96.012mm</t>
+  </si>
+  <si>
+    <t>-101.6mm</t>
+  </si>
+  <si>
+    <t>90.472mm</t>
+  </si>
+  <si>
+    <t>-103.02mm</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>152.146mm</t>
+  </si>
+  <si>
+    <t>-105.664mm</t>
+  </si>
+  <si>
+    <t>-104.911mm</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>150.368mm</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>SS14_C2480</t>
+  </si>
+  <si>
+    <t>SMA_L4.2-W2.6-LS5.3-RD</t>
+  </si>
+  <si>
+    <t>97.536mm</t>
+  </si>
+  <si>
+    <t>-110.236mm</t>
+  </si>
+  <si>
+    <t>-107.671mm</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>MT9700</t>
+  </si>
+  <si>
+    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>91.948mm</t>
+  </si>
+  <si>
+    <t>-108.204mm</t>
+  </si>
+  <si>
+    <t>93.248mm</t>
+  </si>
+  <si>
+    <t>-109.154mm</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>88.9mm</t>
+  </si>
+  <si>
+    <t>-107.504mm</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>94.996mm</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>86.36mm</t>
+  </si>
+  <si>
+    <t>-109.22mm</t>
+  </si>
+  <si>
+    <t>85.607mm</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>-107.696mm</t>
+  </si>
+  <si>
+    <t>87.113mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>DS18B20Z</t>
+  </si>
+  <si>
+    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>153.924mm</t>
+  </si>
+  <si>
+    <t>-124.968mm</t>
+  </si>
+  <si>
+    <t>151.242mm</t>
+  </si>
+  <si>
+    <t>-123.063mm</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>10D471K_C8760</t>
+  </si>
+  <si>
+    <t>RES-TH_L12.5-W6.7-P7.50-D1.2</t>
+  </si>
+  <si>
+    <t>96.52mm</t>
+  </si>
+  <si>
+    <t>-152.4mm</t>
+  </si>
+  <si>
+    <t>-148.651mm</t>
+  </si>
+  <si>
+    <t>10D471K</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>PX104K2C0702</t>
+  </si>
+  <si>
+    <t>CAP-TH_L10.0-W5.0-P7.50-D0.6</t>
+  </si>
+  <si>
+    <t>104.14mm</t>
+  </si>
+  <si>
+    <t>-148.65mm</t>
+  </si>
+  <si>
+    <t>X2 104K</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>PK0810-561KB</t>
+  </si>
+  <si>
+    <t>IND-TH_BD9.0-P5.00-D0.7</t>
+  </si>
+  <si>
+    <t>106.68mm</t>
+  </si>
+  <si>
+    <t>-131.572mm</t>
+  </si>
+  <si>
+    <t>104.18mm</t>
+  </si>
+  <si>
+    <t>560uH</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>YDUU10.5-253L0321</t>
+  </si>
+  <si>
+    <t>IND-TH_4P-L19.0-W17.0</t>
+  </si>
+  <si>
+    <t>116.84mm</t>
+  </si>
+  <si>
+    <t>-148.336mm</t>
+  </si>
+  <si>
+    <t>121.84mm</t>
+  </si>
+  <si>
+    <t>-154.836mm</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>VY1102M31Y5UC63V0</t>
+  </si>
+  <si>
+    <t>CAP-TH_L8.5-W5.0-P10.00-D0.6</t>
+  </si>
+  <si>
+    <t>132.588mm</t>
+  </si>
+  <si>
+    <t>-156.972mm</t>
+  </si>
+  <si>
+    <t>137.588mm</t>
+  </si>
+  <si>
+    <t>Y1 102M</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>-138.684mm</t>
+  </si>
+  <si>
+    <t>127.588mm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>保险丝透明座</t>
+  </si>
+  <si>
+    <t>FUSE-TH_L24.5-W9.8-P22.5</t>
+  </si>
+  <si>
+    <t>86.868mm</t>
+  </si>
+  <si>
+    <t>-140.208mm</t>
+  </si>
+  <si>
+    <t>75.618mm</t>
+  </si>
+  <si>
+    <t>Fuse Holder</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CL31B105KBHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>139.192mm</t>
+  </si>
+  <si>
+    <t>-107.257mm</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>P6KE6.8A_C409413</t>
+  </si>
+  <si>
+    <t>DO-15_BD3.1-L6.7-P10.70-D0.9-RD</t>
+  </si>
+  <si>
+    <t>109.728mm</t>
+  </si>
+  <si>
+    <t>-112.268mm</t>
+  </si>
+  <si>
+    <t>-118.068mm</t>
+  </si>
+  <si>
+    <t>P6KE6.8A</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>NXA 16V470 8*11.5</t>
+  </si>
+  <si>
+    <t>CAP-TH_BD8.0-P3.50-D0.6-FD</t>
+  </si>
+  <si>
+    <t>144.78mm</t>
+  </si>
+  <si>
+    <t>-106.68mm</t>
+  </si>
+  <si>
+    <t>-104.93mm</t>
+  </si>
+  <si>
+    <t>470uF</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TAS10-5-W2</t>
+  </si>
+  <si>
+    <t>PWRM-TH_TAS10-XX-W2</t>
+  </si>
+  <si>
+    <t>124.968mm</t>
+  </si>
+  <si>
+    <t>-115.316mm</t>
+  </si>
+  <si>
+    <t>130.318mm</t>
+  </si>
+  <si>
+    <t>-131.016mm</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>HF33F/005-HS3</t>
+  </si>
+  <si>
+    <t>RELAYS-TH_HF33F-XX-HS1-XXX</t>
+  </si>
+  <si>
+    <t>-134.112mm</t>
+  </si>
+  <si>
+    <t>140.97mm</t>
+  </si>
+  <si>
+    <t>-125.222mm</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>D882 Y档160~320</t>
+  </si>
+  <si>
+    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
+  </si>
+  <si>
+    <t>149.459mm</t>
+  </si>
+  <si>
+    <t>-119.414mm</t>
+  </si>
+  <si>
+    <t>150.959mm</t>
+  </si>
+  <si>
+    <t>-118.058mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>152.908mm</t>
+  </si>
+  <si>
+    <t>-118.872mm</t>
+  </si>
+  <si>
+    <t>-118.119mm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>-106.172mm</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>T34001</t>
+  </si>
+  <si>
+    <t>CONN-TH_T34001</t>
+  </si>
+  <si>
+    <t>-147.828mm</t>
+  </si>
+  <si>
+    <t>130.088mm</t>
+  </si>
+  <si>
+    <t>-151.428mm</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>D-SUB-DR-9PCM-CB</t>
-  </si>
-  <si>
-    <t>DB9-TH_ID09S33E4GV00LF</t>
-  </si>
-  <si>
-    <t>96.012mm</t>
-  </si>
-  <si>
-    <t>-101.6mm</t>
-  </si>
-  <si>
-    <t>90.472mm</t>
-  </si>
-  <si>
-    <t>-103.02mm</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>152.146mm</t>
-  </si>
-  <si>
-    <t>-105.664mm</t>
-  </si>
-  <si>
-    <t>-104.911mm</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>150.368mm</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>SS14_C2480</t>
-  </si>
-  <si>
-    <t>SMA_L4.2-W2.6-LS5.3-RD</t>
-  </si>
-  <si>
-    <t>97.536mm</t>
-  </si>
-  <si>
-    <t>-110.236mm</t>
-  </si>
-  <si>
-    <t>-107.671mm</t>
-  </si>
-  <si>
-    <t>SS14</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>MT9700</t>
-  </si>
-  <si>
-    <t>SOT-23-5_L3.0-W1.7-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>91.948mm</t>
-  </si>
-  <si>
-    <t>-108.204mm</t>
-  </si>
-  <si>
-    <t>93.248mm</t>
-  </si>
-  <si>
-    <t>-109.154mm</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>CL10A106MA8NRNC</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>88.9mm</t>
-  </si>
-  <si>
-    <t>-107.504mm</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>94.996mm</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>86.36mm</t>
-  </si>
-  <si>
-    <t>-109.22mm</t>
-  </si>
-  <si>
-    <t>85.607mm</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>-107.696mm</t>
-  </si>
-  <si>
-    <t>87.113mm</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>DS18B20Z</t>
-  </si>
-  <si>
-    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>153.924mm</t>
-  </si>
-  <si>
-    <t>-124.968mm</t>
-  </si>
-  <si>
-    <t>151.242mm</t>
-  </si>
-  <si>
-    <t>-123.063mm</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>10D471K_C8760</t>
-  </si>
-  <si>
-    <t>RES-TH_L12.5-W6.7-P7.50-D1.2</t>
-  </si>
-  <si>
-    <t>96.52mm</t>
-  </si>
-  <si>
-    <t>-152.4mm</t>
-  </si>
-  <si>
-    <t>-148.651mm</t>
-  </si>
-  <si>
-    <t>10D471K</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>PX104K2C0702</t>
-  </si>
-  <si>
-    <t>CAP-TH_L10.0-W5.0-P7.50-D0.6</t>
-  </si>
-  <si>
-    <t>104.14mm</t>
-  </si>
-  <si>
-    <t>-148.65mm</t>
-  </si>
-  <si>
-    <t>X2 104K</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>PK0810-561KB</t>
-  </si>
-  <si>
-    <t>IND-TH_BD9.0-P5.00-D0.7</t>
-  </si>
-  <si>
-    <t>106.68mm</t>
-  </si>
-  <si>
-    <t>-131.572mm</t>
-  </si>
-  <si>
-    <t>104.18mm</t>
-  </si>
-  <si>
-    <t>560uH</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>YDUU10.5-253L0321</t>
-  </si>
-  <si>
-    <t>IND-TH_4P-L19.0-W17.0</t>
-  </si>
-  <si>
-    <t>116.84mm</t>
-  </si>
-  <si>
-    <t>-148.336mm</t>
-  </si>
-  <si>
-    <t>121.84mm</t>
-  </si>
-  <si>
-    <t>-154.836mm</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>VY1102M31Y5UC63V0</t>
-  </si>
-  <si>
-    <t>CAP-TH_L8.5-W5.0-P10.00-D0.6</t>
-  </si>
-  <si>
-    <t>132.588mm</t>
-  </si>
-  <si>
-    <t>-156.972mm</t>
-  </si>
-  <si>
-    <t>137.588mm</t>
-  </si>
-  <si>
-    <t>Y1 102M</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>-138.684mm</t>
-  </si>
-  <si>
-    <t>127.588mm</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>保险丝透明座</t>
-  </si>
-  <si>
-    <t>FUSE-TH_L24.5-W9.8-P22.5</t>
-  </si>
-  <si>
-    <t>86.868mm</t>
-  </si>
-  <si>
-    <t>-140.208mm</t>
-  </si>
-  <si>
-    <t>75.618mm</t>
-  </si>
-  <si>
-    <t>Fuse Holder</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>CL31B105KBHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>139.192mm</t>
-  </si>
-  <si>
-    <t>-107.257mm</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>P6KE6.8A_C409413</t>
-  </si>
-  <si>
-    <t>DO-15_BD3.1-L6.7-P10.70-D0.9-RD</t>
-  </si>
-  <si>
-    <t>109.728mm</t>
-  </si>
-  <si>
-    <t>-112.268mm</t>
-  </si>
-  <si>
-    <t>-118.068mm</t>
-  </si>
-  <si>
-    <t>P6KE6.8A</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>NXA 16V470 8*11.5</t>
-  </si>
-  <si>
-    <t>CAP-TH_BD8.0-P3.50-D0.6-FD</t>
-  </si>
-  <si>
-    <t>144.78mm</t>
-  </si>
-  <si>
-    <t>-106.68mm</t>
-  </si>
-  <si>
-    <t>-104.93mm</t>
-  </si>
-  <si>
-    <t>470uF</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>TAS10-5-W2</t>
-  </si>
-  <si>
-    <t>PWRM-TH_TAS10-XX-W2</t>
-  </si>
-  <si>
-    <t>124.968mm</t>
-  </si>
-  <si>
-    <t>-115.316mm</t>
-  </si>
-  <si>
-    <t>130.318mm</t>
-  </si>
-  <si>
-    <t>-131.016mm</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>HF33F/005-HS3</t>
-  </si>
-  <si>
-    <t>RELAYS-TH_HF33F-XX-HS1-XXX</t>
-  </si>
-  <si>
-    <t>-134.112mm</t>
-  </si>
-  <si>
-    <t>140.97mm</t>
-  </si>
-  <si>
-    <t>-125.222mm</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>D882 Y档160~320</t>
-  </si>
-  <si>
-    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
-  </si>
-  <si>
-    <t>149.459mm</t>
-  </si>
-  <si>
-    <t>-119.414mm</t>
-  </si>
-  <si>
-    <t>150.959mm</t>
-  </si>
-  <si>
-    <t>-118.058mm</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>152.908mm</t>
-  </si>
-  <si>
-    <t>-118.872mm</t>
-  </si>
-  <si>
-    <t>-118.119mm</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>-106.172mm</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>T34001</t>
-  </si>
-  <si>
-    <t>CONN-TH_T34001</t>
-  </si>
-  <si>
-    <t>-147.828mm</t>
-  </si>
-  <si>
-    <t>130.088mm</t>
-  </si>
-  <si>
-    <t>-151.428mm</t>
+    <t>DBT50G-8.25-2P-BK-P</t>
+  </si>
+  <si>
+    <t>CONN-TH_DBT50G-8.25-2P</t>
+  </si>
+  <si>
+    <t>83.312mm</t>
+  </si>
+  <si>
+    <t>-155.448mm</t>
+  </si>
+  <si>
+    <t>-151.323mm</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
-    <t>DBT50G-8.25-2P-BK-P</t>
-  </si>
-  <si>
-    <t>CONN-TH_DBT50G-8.25-2P</t>
-  </si>
-  <si>
-    <t>83.312mm</t>
-  </si>
-  <si>
-    <t>-155.448mm</t>
-  </si>
-  <si>
-    <t>-151.323mm</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
     <t>147.32mm</t>
   </si>
   <si>
     <t>-159.573mm</t>
   </si>
   <si>
-    <t>w</t>
+    <t>D1</t>
   </si>
   <si>
     <t>143.256mm</t>
